--- a/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
+++ b/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="36" windowWidth="14976" windowHeight="8976"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14970" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="2" r:id="rId1"/>
     <sheet name="Utilisation" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -18,6 +18,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>cvm</author>
+    <author>Mr. Eltee</author>
   </authors>
   <commentList>
     <comment ref="E12" authorId="0">
@@ -111,6 +112,30 @@
           </rPr>
           <t xml:space="preserve">
 Mettre en place la création du frame java, du démarrage de Java2D et de l'environment de dessin; Mettre en place le main loop et l'affichage de la fenêtre.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Le jeu démarre, Java2D fonctionne.</t>
         </r>
       </text>
     </comment>
@@ -303,6 +328,30 @@
           </rPr>
           <t xml:space="preserve">
 Ajouter au loop principal la classe interne de contrôles de clavier pour pouvoir interagir avec le système.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K22" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+La classe est mise en place; les contrôles de base répondent. </t>
         </r>
       </text>
     </comment>
@@ -1239,13 +1288,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
     <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="8"/>
       <color theme="1"/>
@@ -1318,6 +1367,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1716,1131 +1778,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
+  <dxfs count="172">
     <dxf>
       <font>
         <color rgb="FF255B01"/>
@@ -3539,6 +2479,2526 @@
       <font>
         <color rgb="FFA40000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3566,17 +5026,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="3"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
+  <c:style val="3"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3595,24 +5046,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:rotY val="0"/>
-      <c:rAngAx val="0"/>
       <c:perspective val="30"/>
     </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
       <c:pie3DChart>
@@ -3628,16 +5066,11 @@
                 <a:pPr>
                   <a:defRPr sz="600"/>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
             <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
             <c:separator>
 </c:separator>
             <c:showLeaderLines val="1"/>
@@ -3684,21 +5117,12 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3706,17 +5130,15 @@
           <a:pPr>
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3724,17 +5146,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3753,15 +5165,12 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3776,7 +5185,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Planification!$E$191:$E$194</c:f>
@@ -3833,7 +5241,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>Planification!$E$191:$E$194</c:f>
@@ -3864,7 +5271,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3876,27 +5283,16 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="57487360"/>
-        <c:axId val="57156160"/>
+        <c:dLbls/>
+        <c:axId val="53250304"/>
+        <c:axId val="53272576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57487360"/>
+        <c:axId val="53250304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3905,22 +5301,20 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57156160"/>
+        <c:crossAx val="53272576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57156160"/>
+        <c:axId val="53272576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
@@ -3940,11 +5334,8 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr/>
@@ -3953,10 +5344,10 @@
             <a:pPr>
               <a:defRPr sz="800"/>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57487360"/>
+        <c:crossAx val="53250304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3964,7 +5355,6 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3972,17 +5362,15 @@
           <a:pPr>
             <a:defRPr sz="700"/>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
-    <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4054,56 +5442,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="171" dataDxfId="170" totalsRowDxfId="169">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="168" totalsRowDxfId="142"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="141"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="166" totalsRowDxfId="140"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="165" totalsRowDxfId="139"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="164" totalsRowDxfId="138"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="137"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="162" totalsRowDxfId="136"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="135"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="160" totalsRowDxfId="134"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="159" totalsRowDxfId="133"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="158" totalsRowDxfId="132"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="157" totalsRowDxfId="131"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="156" totalsRowDxfId="130"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="155" totalsRowDxfId="129"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="154" totalsRowDxfId="128">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="153" totalsRowDxfId="127">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="152" totalsRowDxfId="126">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="151" totalsRowDxfId="125">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="25" name="Prev 00" dataDxfId="150" totalsRowDxfId="124">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="26" name="Prev 01" dataDxfId="149" totalsRowDxfId="123">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="27" name="Prev 02" dataDxfId="148" totalsRowDxfId="122">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="28" name="Prev 03" dataDxfId="147" totalsRowDxfId="121">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="21" name="Temps S1" dataDxfId="146" totalsRowDxfId="120">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="23" name="Temps S2" dataDxfId="145" totalsRowDxfId="119">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="22" name="Temps S3" dataDxfId="144" totalsRowDxfId="118">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="24" name="Temps S4" dataDxfId="143" totalsRowDxfId="117">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4112,7 +5500,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4186,7 +5574,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4221,7 +5608,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4397,36 +5783,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="7.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="3" customWidth="1"/>
-    <col min="9" max="13" width="8.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="42.85546875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="42.85546875" style="27" customWidth="1"/>
-    <col min="16" max="27" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="1.7109375" style="3" customWidth="1"/>
-    <col min="29" max="29" width="2.140625" style="3" customWidth="1"/>
-    <col min="30" max="31" width="1.42578125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="3.42578125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="1.42578125" style="3" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="42.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="7.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="3" customWidth="1"/>
+    <col min="9" max="13" width="8.5" style="3" customWidth="1"/>
+    <col min="14" max="14" width="42.83203125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="42.83203125" style="27" customWidth="1"/>
+    <col min="16" max="27" width="9.1640625" style="3" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="1.6640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="2.1640625" style="3" customWidth="1"/>
+    <col min="30" max="31" width="1.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="3.5" style="3" customWidth="1"/>
+    <col min="34" max="34" width="1.5" style="3" customWidth="1"/>
+    <col min="35" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:34" ht="19.5" thickBot="1">
       <c r="A1" s="48" t="s">
         <v>70</v>
       </c>
@@ -4447,7 +5833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:34" ht="12" customHeight="1" thickBot="1">
       <c r="A2" s="2"/>
       <c r="C2" s="41" t="s">
         <v>71</v>
@@ -4456,7 +5842,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:34" ht="12" customHeight="1">
       <c r="A3" s="2"/>
       <c r="C3" s="49" t="s">
         <v>72</v>
@@ -4465,45 +5851,45 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:34" ht="12" customHeight="1">
       <c r="A4" s="2"/>
       <c r="C4" s="50"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="2"/>
       <c r="C5" s="50"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:34" ht="12" customHeight="1">
       <c r="A6" s="2"/>
       <c r="C6" s="50"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:34" ht="12" customHeight="1">
       <c r="A7" s="2"/>
       <c r="C7" s="50"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="12" customHeight="1">
       <c r="A8" s="2"/>
       <c r="C8" s="50"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:34" ht="12" customHeight="1">
       <c r="A9" s="2"/>
       <c r="C9" s="50"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:34" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="12" customHeight="1">
       <c r="A10" s="2"/>
       <c r="C10" s="50"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34">
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:34" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="98.45" customHeight="1" thickBot="1">
       <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
@@ -4584,7 +5970,7 @@
       </c>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" ht="22.5">
       <c r="B13" s="29">
         <v>1</v>
       </c>
@@ -4607,13 +5993,13 @@
         <v>15</v>
       </c>
       <c r="I13" s="29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J13" s="32">
         <v>0</v>
       </c>
       <c r="K13" s="33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L13" s="33">
         <v>0</v>
@@ -4661,7 +6047,7 @@
       </c>
       <c r="Y13" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Z13" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -4678,7 +6064,7 @@
       <c r="AG13" s="11"/>
       <c r="AH13" s="12"/>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:34">
       <c r="B14" s="29">
         <v>2</v>
       </c>
@@ -4774,7 +6160,7 @@
       <c r="AG14" s="15"/>
       <c r="AH14" s="16"/>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:34">
       <c r="B15" s="29">
         <v>3</v>
       </c>
@@ -4868,7 +6254,7 @@
       <c r="AG15" s="15"/>
       <c r="AH15" s="16"/>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:34">
       <c r="B16" s="29">
         <v>4</v>
       </c>
@@ -4964,7 +6350,7 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="16"/>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34">
       <c r="B17" s="29">
         <v>5</v>
       </c>
@@ -5060,7 +6446,7 @@
       <c r="AG17" s="20"/>
       <c r="AH17" s="16"/>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34">
       <c r="B18" s="29">
         <v>6</v>
       </c>
@@ -5156,7 +6542,7 @@
       <c r="AG18" s="21"/>
       <c r="AH18" s="16"/>
     </row>
-    <row r="19" spans="2:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" ht="22.5">
       <c r="B19" s="29">
         <v>7</v>
       </c>
@@ -5238,7 +6624,7 @@
       <c r="AG19" s="42"/>
       <c r="AH19" s="16"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34">
       <c r="B20" s="29">
         <v>8</v>
       </c>
@@ -5333,7 +6719,7 @@
       <c r="AG20" s="22"/>
       <c r="AH20" s="16"/>
     </row>
-    <row r="21" spans="2:34" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:34" ht="12" thickBot="1">
       <c r="B21" s="29">
         <v>9</v>
       </c>
@@ -5426,7 +6812,7 @@
       <c r="AG21" s="24"/>
       <c r="AH21" s="25"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34">
       <c r="B22" s="29">
         <v>10</v>
       </c>
@@ -5455,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L22" s="33">
         <v>0</v>
@@ -5514,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34">
       <c r="B23" s="29">
         <v>11</v>
       </c>
@@ -5602,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" ht="22.5">
       <c r="B24" s="29">
         <v>12</v>
       </c>
@@ -5690,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34">
       <c r="B25" s="29">
         <v>13</v>
       </c>
@@ -5778,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:34">
       <c r="B26" s="29">
         <v>14</v>
       </c>
@@ -5866,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:34" ht="22.5">
       <c r="B27" s="29">
         <v>15</v>
       </c>
@@ -5954,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34" ht="22.5">
       <c r="B28" s="29">
         <v>16</v>
       </c>
@@ -6042,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:34">
       <c r="B29" s="29">
         <v>17</v>
       </c>
@@ -6130,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" ht="22.5">
       <c r="B30" s="29">
         <v>18</v>
       </c>
@@ -6218,7 +7604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:34" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:34" ht="22.5">
       <c r="B31" s="29">
         <v>19</v>
       </c>
@@ -6306,7 +7692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:34">
       <c r="B32" s="29">
         <v>20</v>
       </c>
@@ -6394,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27">
       <c r="B33" s="29">
         <v>21</v>
       </c>
@@ -6482,7 +7868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27">
       <c r="B34" s="29">
         <v>22</v>
       </c>
@@ -6570,7 +7956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:27">
       <c r="B35" s="29">
         <v>23</v>
       </c>
@@ -6658,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:27" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" ht="22.5">
       <c r="B36" s="29">
         <v>24</v>
       </c>
@@ -6746,7 +8132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:27" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" ht="22.5">
       <c r="B37" s="29">
         <v>25</v>
       </c>
@@ -6834,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" ht="22.5">
       <c r="B38" s="29">
         <v>26</v>
       </c>
@@ -6922,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" ht="22.5">
       <c r="B39" s="29">
         <v>27</v>
       </c>
@@ -7010,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" ht="22.5">
       <c r="B40" s="29">
         <v>28</v>
       </c>
@@ -7098,7 +8484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:27">
       <c r="B41" s="29">
         <v>29</v>
       </c>
@@ -7186,7 +8572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27">
       <c r="B42" s="29">
         <v>30</v>
       </c>
@@ -7274,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27">
       <c r="B43" s="29">
         <v>31</v>
       </c>
@@ -7362,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27">
       <c r="B44" s="29">
         <v>32</v>
       </c>
@@ -7450,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27">
       <c r="B45" s="29">
         <v>33</v>
       </c>
@@ -7538,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27">
       <c r="B46" s="29">
         <v>34</v>
       </c>
@@ -7626,7 +9012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27">
       <c r="B47" s="29">
         <v>35</v>
       </c>
@@ -7714,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27">
       <c r="B48" s="29">
         <v>36</v>
       </c>
@@ -7802,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27">
       <c r="B49" s="29">
         <v>37</v>
       </c>
@@ -7890,23 +9276,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27">
       <c r="B50" s="36"/>
       <c r="C50" s="37">
-        <f>SUBTOTAL(103,Table1[Description générale de la tâche])</f>
+        <f>SUBTOTAL(103,[Description générale de la tâche])</f>
         <v>37</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
       <c r="G50" s="38">
-        <f>SUBTOTAL(109,Table1[Temps requis (minutes)])</f>
+        <f>SUBTOTAL(109,[Temps requis (minutes)])</f>
         <v>1150</v>
       </c>
       <c r="H50" s="31"/>
       <c r="I50" s="38">
-        <f>SUBTOTAL(109,Table1[Temps investis (minutes)])</f>
-        <v>0</v>
+        <f>SUBTOTAL(109,[Temps investis (minutes)])</f>
+        <v>25</v>
       </c>
       <c r="J50" s="43"/>
       <c r="K50" s="44"/>
@@ -7927,7 +9313,7 @@
       <c r="Z50" s="45"/>
       <c r="AA50" s="47"/>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27">
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -7942,7 +9328,7 @@
       <c r="M51" s="27"/>
       <c r="N51" s="27"/>
     </row>
-    <row r="52" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27">
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -7957,7 +9343,7 @@
       <c r="M52" s="27"/>
       <c r="N52" s="27"/>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27">
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -7972,7 +9358,7 @@
       <c r="M53" s="27"/>
       <c r="N53" s="27"/>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27">
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -7987,7 +9373,7 @@
       <c r="M54" s="27"/>
       <c r="N54" s="27"/>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27">
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -8002,7 +9388,7 @@
       <c r="M55" s="27"/>
       <c r="N55" s="27"/>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27">
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -8017,7 +9403,7 @@
       <c r="M56" s="27"/>
       <c r="N56" s="27"/>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27">
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -8032,7 +9418,7 @@
       <c r="M57" s="27"/>
       <c r="N57" s="27"/>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27">
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -8047,7 +9433,7 @@
       <c r="M58" s="27"/>
       <c r="N58" s="27"/>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27">
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -8062,7 +9448,7 @@
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27">
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -8077,7 +9463,7 @@
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27">
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -8092,7 +9478,7 @@
       <c r="M61" s="27"/>
       <c r="N61" s="27"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27">
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -8107,7 +9493,7 @@
       <c r="M62" s="27"/>
       <c r="N62" s="27"/>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27">
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -8122,7 +9508,7 @@
       <c r="M63" s="27"/>
       <c r="N63" s="27"/>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27">
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -8137,7 +9523,7 @@
       <c r="M64" s="27"/>
       <c r="N64" s="27"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:14">
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -8152,7 +9538,7 @@
       <c r="M65" s="27"/>
       <c r="N65" s="27"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:14">
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -8167,7 +9553,7 @@
       <c r="M66" s="27"/>
       <c r="N66" s="27"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14">
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -8182,7 +9568,7 @@
       <c r="M67" s="27"/>
       <c r="N67" s="27"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:14">
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -8197,7 +9583,7 @@
       <c r="M68" s="27"/>
       <c r="N68" s="27"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:14">
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -8212,7 +9598,7 @@
       <c r="M69" s="27"/>
       <c r="N69" s="27"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14">
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -8227,7 +9613,7 @@
       <c r="M70" s="27"/>
       <c r="N70" s="27"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:14">
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -8242,7 +9628,7 @@
       <c r="M71" s="27"/>
       <c r="N71" s="27"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:14">
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -8257,7 +9643,7 @@
       <c r="M72" s="27"/>
       <c r="N72" s="27"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14">
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -8272,7 +9658,7 @@
       <c r="M73" s="27"/>
       <c r="N73" s="27"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:14">
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -8287,7 +9673,7 @@
       <c r="M74" s="27"/>
       <c r="N74" s="27"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:14">
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -8302,7 +9688,7 @@
       <c r="M75" s="27"/>
       <c r="N75" s="27"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:14">
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -8317,7 +9703,7 @@
       <c r="M76" s="27"/>
       <c r="N76" s="27"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14">
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -8332,7 +9718,7 @@
       <c r="M77" s="27"/>
       <c r="N77" s="27"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:14">
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -8347,7 +9733,7 @@
       <c r="M78" s="27"/>
       <c r="N78" s="27"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:14">
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -8362,7 +9748,7 @@
       <c r="M79" s="27"/>
       <c r="N79" s="27"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14">
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -8377,7 +9763,7 @@
       <c r="M80" s="27"/>
       <c r="N80" s="27"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:14">
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -8392,7 +9778,7 @@
       <c r="M81" s="27"/>
       <c r="N81" s="27"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:14">
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -8407,7 +9793,7 @@
       <c r="M82" s="27"/>
       <c r="N82" s="27"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:14">
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -8422,7 +9808,7 @@
       <c r="M83" s="27"/>
       <c r="N83" s="27"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:14">
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
@@ -8437,7 +9823,7 @@
       <c r="M84" s="27"/>
       <c r="N84" s="27"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:14">
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
@@ -8452,7 +9838,7 @@
       <c r="M85" s="27"/>
       <c r="N85" s="27"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:14">
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -8467,7 +9853,7 @@
       <c r="M86" s="27"/>
       <c r="N86" s="27"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:14">
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -8482,7 +9868,7 @@
       <c r="M87" s="27"/>
       <c r="N87" s="27"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:14">
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -8497,7 +9883,7 @@
       <c r="M88" s="27"/>
       <c r="N88" s="27"/>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:14">
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
@@ -8512,7 +9898,7 @@
       <c r="M89" s="27"/>
       <c r="N89" s="27"/>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:14">
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -8527,7 +9913,7 @@
       <c r="M90" s="27"/>
       <c r="N90" s="27"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:14">
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
@@ -8542,7 +9928,7 @@
       <c r="M91" s="27"/>
       <c r="N91" s="27"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:14">
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
@@ -8557,7 +9943,7 @@
       <c r="M92" s="27"/>
       <c r="N92" s="27"/>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:14">
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
@@ -8572,7 +9958,7 @@
       <c r="M93" s="27"/>
       <c r="N93" s="27"/>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14">
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
@@ -8587,7 +9973,7 @@
       <c r="M94" s="27"/>
       <c r="N94" s="27"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:14">
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
@@ -8602,7 +9988,7 @@
       <c r="M95" s="27"/>
       <c r="N95" s="27"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:14">
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -8617,7 +10003,7 @@
       <c r="M96" s="27"/>
       <c r="N96" s="27"/>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:14">
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -8632,7 +10018,7 @@
       <c r="M97" s="27"/>
       <c r="N97" s="27"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:14">
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
@@ -8647,7 +10033,7 @@
       <c r="M98" s="27"/>
       <c r="N98" s="27"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:14">
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
@@ -8662,7 +10048,7 @@
       <c r="M99" s="27"/>
       <c r="N99" s="27"/>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:14">
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
@@ -8677,7 +10063,7 @@
       <c r="M100" s="27"/>
       <c r="N100" s="27"/>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:14">
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
@@ -8692,7 +10078,7 @@
       <c r="M101" s="27"/>
       <c r="N101" s="27"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:14">
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
@@ -8707,7 +10093,7 @@
       <c r="M102" s="27"/>
       <c r="N102" s="27"/>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:14">
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
@@ -8722,7 +10108,7 @@
       <c r="M103" s="27"/>
       <c r="N103" s="27"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:14">
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
@@ -8737,7 +10123,7 @@
       <c r="M104" s="27"/>
       <c r="N104" s="27"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:14">
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
@@ -8752,7 +10138,7 @@
       <c r="M105" s="27"/>
       <c r="N105" s="27"/>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:14">
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
@@ -8767,7 +10153,7 @@
       <c r="M106" s="27"/>
       <c r="N106" s="27"/>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:14">
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
@@ -8782,7 +10168,7 @@
       <c r="M107" s="27"/>
       <c r="N107" s="27"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:14">
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
@@ -8797,7 +10183,7 @@
       <c r="M108" s="27"/>
       <c r="N108" s="27"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:14">
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
@@ -8812,7 +10198,7 @@
       <c r="M109" s="27"/>
       <c r="N109" s="27"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:14">
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
@@ -8827,7 +10213,7 @@
       <c r="M110" s="27"/>
       <c r="N110" s="27"/>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:14">
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
@@ -8842,7 +10228,7 @@
       <c r="M111" s="27"/>
       <c r="N111" s="27"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:14">
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
@@ -8857,7 +10243,7 @@
       <c r="M112" s="27"/>
       <c r="N112" s="27"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:14">
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
@@ -8872,7 +10258,7 @@
       <c r="M113" s="27"/>
       <c r="N113" s="27"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:14">
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -8887,7 +10273,7 @@
       <c r="M114" s="27"/>
       <c r="N114" s="27"/>
     </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:14">
       <c r="B115" s="27"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -8902,7 +10288,7 @@
       <c r="M115" s="27"/>
       <c r="N115" s="27"/>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:14">
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
       <c r="D116" s="27"/>
@@ -8917,7 +10303,7 @@
       <c r="M116" s="27"/>
       <c r="N116" s="27"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:14">
       <c r="B117" s="27"/>
       <c r="C117" s="27"/>
       <c r="D117" s="27"/>
@@ -8932,7 +10318,7 @@
       <c r="M117" s="27"/>
       <c r="N117" s="27"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:14">
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
       <c r="D118" s="27"/>
@@ -8947,7 +10333,7 @@
       <c r="M118" s="27"/>
       <c r="N118" s="27"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:14">
       <c r="B119" s="27"/>
       <c r="C119" s="27"/>
       <c r="D119" s="27"/>
@@ -8962,7 +10348,7 @@
       <c r="M119" s="27"/>
       <c r="N119" s="27"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:14">
       <c r="B120" s="27"/>
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
@@ -8977,7 +10363,7 @@
       <c r="M120" s="27"/>
       <c r="N120" s="27"/>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:14">
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
@@ -8992,7 +10378,7 @@
       <c r="M121" s="27"/>
       <c r="N121" s="27"/>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:14">
       <c r="B122" s="27"/>
       <c r="C122" s="27"/>
       <c r="D122" s="27"/>
@@ -9007,7 +10393,7 @@
       <c r="M122" s="27"/>
       <c r="N122" s="27"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:14">
       <c r="B123" s="27"/>
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
@@ -9022,7 +10408,7 @@
       <c r="M123" s="27"/>
       <c r="N123" s="27"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:14">
       <c r="B124" s="27"/>
       <c r="C124" s="27"/>
       <c r="D124" s="27"/>
@@ -9037,7 +10423,7 @@
       <c r="M124" s="27"/>
       <c r="N124" s="27"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:14">
       <c r="B125" s="27"/>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
@@ -9052,7 +10438,7 @@
       <c r="M125" s="27"/>
       <c r="N125" s="27"/>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:14">
       <c r="B126" s="27"/>
       <c r="C126" s="27"/>
       <c r="D126" s="27"/>
@@ -9067,7 +10453,7 @@
       <c r="M126" s="27"/>
       <c r="N126" s="27"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:14">
       <c r="B127" s="27"/>
       <c r="C127" s="27"/>
       <c r="D127" s="27"/>
@@ -9082,7 +10468,7 @@
       <c r="M127" s="27"/>
       <c r="N127" s="27"/>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:14">
       <c r="B128" s="27"/>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
@@ -9097,7 +10483,7 @@
       <c r="M128" s="27"/>
       <c r="N128" s="27"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:14">
       <c r="B129" s="27"/>
       <c r="C129" s="27"/>
       <c r="D129" s="27"/>
@@ -9112,7 +10498,7 @@
       <c r="M129" s="27"/>
       <c r="N129" s="27"/>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:14">
       <c r="B130" s="27"/>
       <c r="C130" s="27"/>
       <c r="D130" s="27"/>
@@ -9127,7 +10513,7 @@
       <c r="M130" s="27"/>
       <c r="N130" s="27"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:14">
       <c r="B131" s="27"/>
       <c r="C131" s="27"/>
       <c r="D131" s="27"/>
@@ -9142,7 +10528,7 @@
       <c r="M131" s="27"/>
       <c r="N131" s="27"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:14">
       <c r="B132" s="27"/>
       <c r="C132" s="27"/>
       <c r="D132" s="27"/>
@@ -9157,7 +10543,7 @@
       <c r="M132" s="27"/>
       <c r="N132" s="27"/>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:14">
       <c r="B133" s="27"/>
       <c r="C133" s="27"/>
       <c r="D133" s="27"/>
@@ -9172,7 +10558,7 @@
       <c r="M133" s="27"/>
       <c r="N133" s="27"/>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:14">
       <c r="B134" s="27"/>
       <c r="C134" s="27"/>
       <c r="D134" s="27"/>
@@ -9187,7 +10573,7 @@
       <c r="M134" s="27"/>
       <c r="N134" s="27"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:14">
       <c r="B135" s="27"/>
       <c r="C135" s="27"/>
       <c r="D135" s="27"/>
@@ -9202,7 +10588,7 @@
       <c r="M135" s="27"/>
       <c r="N135" s="27"/>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:14">
       <c r="B136" s="27"/>
       <c r="C136" s="27"/>
       <c r="D136" s="27"/>
@@ -9217,7 +10603,7 @@
       <c r="M136" s="27"/>
       <c r="N136" s="27"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:14">
       <c r="B137" s="27"/>
       <c r="C137" s="27"/>
       <c r="D137" s="27"/>
@@ -9232,7 +10618,7 @@
       <c r="M137" s="27"/>
       <c r="N137" s="27"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:14">
       <c r="B138" s="27"/>
       <c r="C138" s="27"/>
       <c r="D138" s="27"/>
@@ -9247,7 +10633,7 @@
       <c r="M138" s="27"/>
       <c r="N138" s="27"/>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:14">
       <c r="B139" s="27"/>
       <c r="C139" s="27"/>
       <c r="D139" s="27"/>
@@ -9262,7 +10648,7 @@
       <c r="M139" s="27"/>
       <c r="N139" s="27"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:14">
       <c r="B140" s="27"/>
       <c r="C140" s="27"/>
       <c r="D140" s="27"/>
@@ -9277,7 +10663,7 @@
       <c r="M140" s="27"/>
       <c r="N140" s="27"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:14">
       <c r="B141" s="27"/>
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
@@ -9292,7 +10678,7 @@
       <c r="M141" s="27"/>
       <c r="N141" s="27"/>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:14">
       <c r="B142" s="27"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -9307,7 +10693,7 @@
       <c r="M142" s="27"/>
       <c r="N142" s="27"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:14">
       <c r="B143" s="27"/>
       <c r="C143" s="27"/>
       <c r="D143" s="27"/>
@@ -9322,7 +10708,7 @@
       <c r="M143" s="27"/>
       <c r="N143" s="27"/>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:14">
       <c r="B144" s="27"/>
       <c r="C144" s="27"/>
       <c r="D144" s="27"/>
@@ -9337,7 +10723,7 @@
       <c r="M144" s="27"/>
       <c r="N144" s="27"/>
     </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:14">
       <c r="B145" s="27"/>
       <c r="C145" s="27"/>
       <c r="D145" s="27"/>
@@ -9352,7 +10738,7 @@
       <c r="M145" s="27"/>
       <c r="N145" s="27"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:14">
       <c r="B146" s="27"/>
       <c r="C146" s="27"/>
       <c r="D146" s="27"/>
@@ -9367,7 +10753,7 @@
       <c r="M146" s="27"/>
       <c r="N146" s="27"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:14">
       <c r="B147" s="27"/>
       <c r="C147" s="27"/>
       <c r="D147" s="27"/>
@@ -9382,7 +10768,7 @@
       <c r="M147" s="27"/>
       <c r="N147" s="27"/>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:14">
       <c r="B148" s="27"/>
       <c r="C148" s="27"/>
       <c r="D148" s="27"/>
@@ -9397,7 +10783,7 @@
       <c r="M148" s="27"/>
       <c r="N148" s="27"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:14">
       <c r="B149" s="27"/>
       <c r="C149" s="27"/>
       <c r="D149" s="27"/>
@@ -9412,7 +10798,7 @@
       <c r="M149" s="27"/>
       <c r="N149" s="27"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:14">
       <c r="B150" s="27"/>
       <c r="C150" s="27"/>
       <c r="D150" s="27"/>
@@ -9427,7 +10813,7 @@
       <c r="M150" s="27"/>
       <c r="N150" s="27"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:14">
       <c r="B151" s="27"/>
       <c r="C151" s="27"/>
       <c r="D151" s="27"/>
@@ -9442,7 +10828,7 @@
       <c r="M151" s="27"/>
       <c r="N151" s="27"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:14">
       <c r="B152" s="27"/>
       <c r="C152" s="27"/>
       <c r="D152" s="27"/>
@@ -9457,7 +10843,7 @@
       <c r="M152" s="27"/>
       <c r="N152" s="27"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:14">
       <c r="B153" s="27"/>
       <c r="C153" s="27"/>
       <c r="D153" s="27"/>
@@ -9472,7 +10858,7 @@
       <c r="M153" s="27"/>
       <c r="N153" s="27"/>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:14">
       <c r="B154" s="27"/>
       <c r="C154" s="27"/>
       <c r="D154" s="27"/>
@@ -9487,7 +10873,7 @@
       <c r="M154" s="27"/>
       <c r="N154" s="27"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:14">
       <c r="B155" s="27"/>
       <c r="C155" s="27"/>
       <c r="D155" s="27"/>
@@ -9502,7 +10888,7 @@
       <c r="M155" s="27"/>
       <c r="N155" s="27"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:14">
       <c r="B156" s="27"/>
       <c r="C156" s="27"/>
       <c r="D156" s="27"/>
@@ -9517,7 +10903,7 @@
       <c r="M156" s="27"/>
       <c r="N156" s="27"/>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:14">
       <c r="B157" s="27"/>
       <c r="C157" s="27"/>
       <c r="D157" s="27"/>
@@ -9532,7 +10918,7 @@
       <c r="M157" s="27"/>
       <c r="N157" s="27"/>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:14">
       <c r="B158" s="27"/>
       <c r="C158" s="27"/>
       <c r="D158" s="27"/>
@@ -9547,7 +10933,7 @@
       <c r="M158" s="27"/>
       <c r="N158" s="27"/>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:14">
       <c r="B159" s="27"/>
       <c r="C159" s="27"/>
       <c r="D159" s="27"/>
@@ -9562,7 +10948,7 @@
       <c r="M159" s="27"/>
       <c r="N159" s="27"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:14">
       <c r="B160" s="27"/>
       <c r="C160" s="27"/>
       <c r="D160" s="27"/>
@@ -9577,7 +10963,7 @@
       <c r="M160" s="27"/>
       <c r="N160" s="27"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:14">
       <c r="B161" s="27"/>
       <c r="C161" s="27"/>
       <c r="D161" s="27"/>
@@ -9592,7 +10978,7 @@
       <c r="M161" s="27"/>
       <c r="N161" s="27"/>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:14">
       <c r="B162" s="27"/>
       <c r="C162" s="27"/>
       <c r="D162" s="27"/>
@@ -9607,7 +10993,7 @@
       <c r="M162" s="27"/>
       <c r="N162" s="27"/>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:14">
       <c r="B163" s="27"/>
       <c r="C163" s="27"/>
       <c r="D163" s="27"/>
@@ -9622,7 +11008,7 @@
       <c r="M163" s="27"/>
       <c r="N163" s="27"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:14">
       <c r="B164" s="27"/>
       <c r="C164" s="27"/>
       <c r="D164" s="27"/>
@@ -9637,7 +11023,7 @@
       <c r="M164" s="27"/>
       <c r="N164" s="27"/>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:14">
       <c r="B165" s="27"/>
       <c r="C165" s="27"/>
       <c r="D165" s="27"/>
@@ -9652,7 +11038,7 @@
       <c r="M165" s="27"/>
       <c r="N165" s="27"/>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:14">
       <c r="B166" s="27"/>
       <c r="C166" s="27"/>
       <c r="D166" s="27"/>
@@ -9667,7 +11053,7 @@
       <c r="M166" s="27"/>
       <c r="N166" s="27"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:14">
       <c r="B167" s="27"/>
       <c r="C167" s="27"/>
       <c r="D167" s="27"/>
@@ -9682,7 +11068,7 @@
       <c r="M167" s="27"/>
       <c r="N167" s="27"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:14">
       <c r="B168" s="27"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -9697,7 +11083,7 @@
       <c r="M168" s="27"/>
       <c r="N168" s="27"/>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:14">
       <c r="B169" s="27"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -9712,7 +11098,7 @@
       <c r="M169" s="27"/>
       <c r="N169" s="27"/>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:14">
       <c r="B170" s="27"/>
       <c r="C170" s="27"/>
       <c r="D170" s="27"/>
@@ -9727,7 +11113,7 @@
       <c r="M170" s="27"/>
       <c r="N170" s="27"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:14">
       <c r="B171" s="27"/>
       <c r="C171" s="27"/>
       <c r="D171" s="27"/>
@@ -9742,7 +11128,7 @@
       <c r="M171" s="27"/>
       <c r="N171" s="27"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:14">
       <c r="B172" s="27"/>
       <c r="C172" s="27"/>
       <c r="D172" s="27"/>
@@ -9757,7 +11143,7 @@
       <c r="M172" s="27"/>
       <c r="N172" s="27"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:14">
       <c r="B173" s="27"/>
       <c r="C173" s="27"/>
       <c r="D173" s="27"/>
@@ -9772,7 +11158,7 @@
       <c r="M173" s="27"/>
       <c r="N173" s="27"/>
     </row>
-    <row r="190" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:9" hidden="1">
       <c r="D190" s="3" t="s">
         <v>28</v>
       </c>
@@ -9786,7 +11172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:9" hidden="1">
       <c r="E191" s="3" t="s">
         <v>14</v>
       </c>
@@ -9807,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="4:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:9" hidden="1">
       <c r="E192" s="3" t="s">
         <v>15</v>
       </c>
@@ -9825,10 +11211,10 @@
       </c>
       <c r="I192" s="3">
         <f>SUM(Table1[Temps S2])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="5:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="5:9" hidden="1">
       <c r="E193" s="3" t="s">
         <v>16</v>
       </c>
@@ -9849,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="5:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="5:9" hidden="1">
       <c r="E194" s="3" t="s">
         <v>40</v>
       </c>
@@ -9870,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="5:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="5:9" hidden="1">
       <c r="E195" s="3" t="s">
         <v>29</v>
       </c>
@@ -9884,7 +11270,7 @@
       </c>
       <c r="I195" s="3">
         <f>SUM(I191:I194)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -9894,146 +11280,166 @@
     <mergeCell ref="C3:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F26">
-    <cfRule type="cellIs" dxfId="93" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="46" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M26">
-    <cfRule type="expression" dxfId="90" priority="34">
+    <cfRule type="expression" dxfId="74" priority="36">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="35">
+    <cfRule type="expression" dxfId="73" priority="37">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="36">
+    <cfRule type="expression" dxfId="72" priority="38">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="84" priority="28">
+    <cfRule type="expression" dxfId="68" priority="30">
       <formula>P28="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="29">
+    <cfRule type="expression" dxfId="67" priority="31">
       <formula>P28="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="30">
+    <cfRule type="expression" dxfId="66" priority="32">
       <formula>P28="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F43">
-    <cfRule type="cellIs" dxfId="81" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M43">
-    <cfRule type="expression" dxfId="78" priority="22">
+    <cfRule type="expression" dxfId="62" priority="24">
       <formula>P29="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="23">
+    <cfRule type="expression" dxfId="61" priority="25">
       <formula>P29="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="24">
+    <cfRule type="expression" dxfId="60" priority="26">
       <formula>P29="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F46">
-    <cfRule type="cellIs" dxfId="75" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M46">
-    <cfRule type="expression" dxfId="72" priority="16">
+    <cfRule type="expression" dxfId="56" priority="18">
       <formula>P44="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="17">
+    <cfRule type="expression" dxfId="55" priority="19">
       <formula>P44="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="18">
+    <cfRule type="expression" dxfId="54" priority="20">
       <formula>P44="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="69" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="66" priority="10">
+    <cfRule type="expression" dxfId="50" priority="12">
       <formula>P27="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="11">
+    <cfRule type="expression" dxfId="49" priority="13">
       <formula>P27="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="12">
+    <cfRule type="expression" dxfId="48" priority="14">
       <formula>P27="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="expression" dxfId="63" priority="7">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>P47="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="8">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>P47="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="9">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>P47="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:M48">
-    <cfRule type="expression" dxfId="60" priority="4">
+    <cfRule type="expression" dxfId="44" priority="6">
       <formula>P48="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="5">
+    <cfRule type="expression" dxfId="43" priority="7">
       <formula>P48="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="6">
+    <cfRule type="expression" dxfId="42" priority="8">
       <formula>P48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:M49">
-    <cfRule type="expression" dxfId="57" priority="1">
+    <cfRule type="expression" dxfId="41" priority="3">
       <formula>P49="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="2">
+    <cfRule type="expression" dxfId="40" priority="4">
       <formula>P49="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="3">
+    <cfRule type="expression" dxfId="39" priority="5">
       <formula>P49="Terminé"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
@@ -10062,39 +11468,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>26</v>
       </c>

--- a/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
+++ b/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
@@ -163,6 +163,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K14" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Les attributs de base d'Entity sont mis en place; classe abstraite.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C15" authorId="0">
       <text>
         <r>
@@ -184,6 +208,30 @@
           </rPr>
           <t xml:space="preserve">
 Coder les méthodes de déplacement, de collisions et les gets pour les attributs de base communs.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K15" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Les méthodes sont mises en place; certaines méthodes sont en commentaires car les classes sont inexistantes encore.</t>
         </r>
       </text>
     </comment>
@@ -1780,706 +1828,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="172">
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
+  <dxfs count="211">
     <dxf>
       <font>
         <color rgb="FF255B01"/>
@@ -4408,6 +3757,1404 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -5117,7 +5864,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
@@ -5138,7 +5884,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5283,12 +6029,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="53250304"/>
-        <c:axId val="53272576"/>
+        <c:axId val="89503616"/>
+        <c:axId val="89505152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53250304"/>
+        <c:axId val="89503616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5304,14 +6049,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53272576"/>
+        <c:crossAx val="89505152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="53272576"/>
+        <c:axId val="89505152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +6092,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53250304"/>
+        <c:crossAx val="89503616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5370,7 +6115,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5442,56 +6187,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="171" dataDxfId="170" totalsRowDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="168" totalsRowDxfId="142"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="141"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="166" totalsRowDxfId="140"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="165" totalsRowDxfId="139"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="164" totalsRowDxfId="138"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="137"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="162" totalsRowDxfId="136"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="135"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="160" totalsRowDxfId="134"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="159" totalsRowDxfId="133"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="158" totalsRowDxfId="132"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="157" totalsRowDxfId="131"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="156" totalsRowDxfId="130"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="155" totalsRowDxfId="129"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="154" totalsRowDxfId="128">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="207" totalsRowDxfId="103"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="102"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="205" totalsRowDxfId="101"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="204" totalsRowDxfId="100"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="203" totalsRowDxfId="99"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="202" totalsRowDxfId="98"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="201" totalsRowDxfId="97"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="200" totalsRowDxfId="96"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="199" totalsRowDxfId="95"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="198" totalsRowDxfId="94"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="197" totalsRowDxfId="93"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="196" totalsRowDxfId="92"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="195" totalsRowDxfId="91"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="194" totalsRowDxfId="90"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="193" totalsRowDxfId="89">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="153" totalsRowDxfId="127">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="192" totalsRowDxfId="88">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="152" totalsRowDxfId="126">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="191" totalsRowDxfId="87">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="151" totalsRowDxfId="125">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="190" totalsRowDxfId="86">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="150" totalsRowDxfId="124">
+    <tableColumn id="25" name="Prev 00" dataDxfId="189" totalsRowDxfId="85">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="149" totalsRowDxfId="123">
+    <tableColumn id="26" name="Prev 01" dataDxfId="188" totalsRowDxfId="84">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="148" totalsRowDxfId="122">
+    <tableColumn id="27" name="Prev 02" dataDxfId="187" totalsRowDxfId="83">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="147" totalsRowDxfId="121">
+    <tableColumn id="28" name="Prev 03" dataDxfId="186" totalsRowDxfId="82">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="146" totalsRowDxfId="120">
+    <tableColumn id="21" name="Temps S1" dataDxfId="185" totalsRowDxfId="81">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="145" totalsRowDxfId="119">
+    <tableColumn id="23" name="Temps S2" dataDxfId="184" totalsRowDxfId="80">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="144" totalsRowDxfId="118">
+    <tableColumn id="22" name="Temps S3" dataDxfId="183" totalsRowDxfId="79">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="143" totalsRowDxfId="117">
+    <tableColumn id="24" name="Temps S4" dataDxfId="182" totalsRowDxfId="78">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5787,7 +6532,7 @@
   <dimension ref="A1:AH195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25"/>
@@ -6093,7 +6838,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L14" s="33">
         <v>0</v>
@@ -6189,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="33">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L15" s="33">
         <v>0</v>
@@ -6283,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L16" s="33">
         <v>0</v>
@@ -11280,150 +12025,150 @@
     <mergeCell ref="C3:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F26">
-    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="49" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="50" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M26">
-    <cfRule type="expression" dxfId="74" priority="36">
+    <cfRule type="expression" dxfId="74" priority="39">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="37">
+    <cfRule type="expression" dxfId="73" priority="40">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="38">
+    <cfRule type="expression" dxfId="72" priority="41">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="71" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="68" priority="30">
+    <cfRule type="expression" dxfId="68" priority="33">
       <formula>P28="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="31">
+    <cfRule type="expression" dxfId="67" priority="34">
       <formula>P28="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="32">
+    <cfRule type="expression" dxfId="66" priority="35">
       <formula>P28="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F43">
-    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M43">
-    <cfRule type="expression" dxfId="62" priority="24">
+    <cfRule type="expression" dxfId="62" priority="27">
       <formula>P29="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="25">
+    <cfRule type="expression" dxfId="61" priority="28">
       <formula>P29="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="26">
+    <cfRule type="expression" dxfId="60" priority="29">
       <formula>P29="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F46">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M46">
-    <cfRule type="expression" dxfId="56" priority="18">
+    <cfRule type="expression" dxfId="56" priority="21">
       <formula>P44="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="19">
+    <cfRule type="expression" dxfId="55" priority="22">
       <formula>P44="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="20">
+    <cfRule type="expression" dxfId="54" priority="23">
       <formula>P44="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="50" priority="12">
+    <cfRule type="expression" dxfId="50" priority="15">
       <formula>P27="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="13">
+    <cfRule type="expression" dxfId="49" priority="16">
       <formula>P27="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="14">
+    <cfRule type="expression" dxfId="48" priority="17">
       <formula>P27="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="expression" dxfId="47" priority="9">
+    <cfRule type="expression" dxfId="47" priority="12">
       <formula>P47="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="10">
+    <cfRule type="expression" dxfId="46" priority="13">
       <formula>P47="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="11">
+    <cfRule type="expression" dxfId="45" priority="14">
       <formula>P47="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:M48">
-    <cfRule type="expression" dxfId="44" priority="6">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>P48="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="7">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>P48="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="8">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>P48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:M49">
-    <cfRule type="expression" dxfId="41" priority="3">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>P49="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="4">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>P49="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>P49="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -11433,12 +12178,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
         <color rgb="FF63BE7B"/>
         <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
+++ b/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
@@ -259,6 +259,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K17" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Mis en place, manque seulement les algos pour donner accès a un spriteset et non pas une seule sprite par entité..</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C18" authorId="0">
       <text>
         <r>
@@ -304,6 +328,30 @@
           </rPr>
           <t xml:space="preserve">
 Mise en place d'un algo pour sauvegarder les objets Tileset en fichiers encryptés et d'un algo pour les charger au démarrage.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K19" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ajout de la classe Serializer qui ne sera pas utiliser dans le jeu en tant que tel, mais qui contient un main() servant à sauvegarder des objets serialisés.</t>
         </r>
       </text>
     </comment>
@@ -1462,7 +1510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1639,12 +1687,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -1792,26 +1851,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1823,12 +1862,567 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="175">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF255B01"/>
@@ -2143,21 +2737,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF255B01"/>
       </font>
       <fill>
@@ -2608,240 +3187,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF00A400"/>
       </font>
     </dxf>
@@ -2854,909 +3199,6 @@
       <font>
         <color rgb="FFA40000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5884,7 +5326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6029,11 +5471,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89503616"/>
-        <c:axId val="89505152"/>
+        <c:axId val="80139008"/>
+        <c:axId val="80140544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89503616"/>
+        <c:axId val="80139008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6049,14 +5491,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89505152"/>
+        <c:crossAx val="80140544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89505152"/>
+        <c:axId val="80140544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,7 +5534,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89503616"/>
+        <c:crossAx val="80139008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6115,7 +5557,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6187,56 +5629,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="174" dataDxfId="173" totalsRowDxfId="172">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="207" totalsRowDxfId="103"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="102"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="205" totalsRowDxfId="101"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="204" totalsRowDxfId="100"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="203" totalsRowDxfId="99"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="202" totalsRowDxfId="98"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="201" totalsRowDxfId="97"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="200" totalsRowDxfId="96"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="199" totalsRowDxfId="95"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="198" totalsRowDxfId="94"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="197" totalsRowDxfId="93"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="196" totalsRowDxfId="92"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="195" totalsRowDxfId="91"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="194" totalsRowDxfId="90"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="193" totalsRowDxfId="89">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="171" totalsRowDxfId="25"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="169" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="168" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="167" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="165" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="18"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="163" totalsRowDxfId="17"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="162" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="161" totalsRowDxfId="15"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="160" totalsRowDxfId="14"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="159" totalsRowDxfId="13"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="158" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="157" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="192" totalsRowDxfId="88">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="156" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="191" totalsRowDxfId="87">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="155" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="190" totalsRowDxfId="86">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="154" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="189" totalsRowDxfId="85">
+    <tableColumn id="25" name="Prev 00" dataDxfId="153" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="188" totalsRowDxfId="84">
+    <tableColumn id="26" name="Prev 01" dataDxfId="152" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="187" totalsRowDxfId="83">
+    <tableColumn id="27" name="Prev 02" dataDxfId="151" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="186" totalsRowDxfId="82">
+    <tableColumn id="28" name="Prev 03" dataDxfId="150" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="185" totalsRowDxfId="81">
+    <tableColumn id="21" name="Temps S1" dataDxfId="149" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="184" totalsRowDxfId="80">
+    <tableColumn id="23" name="Temps S2" dataDxfId="148" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="183" totalsRowDxfId="79">
+    <tableColumn id="22" name="Temps S3" dataDxfId="147" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="182" totalsRowDxfId="78">
+    <tableColumn id="24" name="Temps S4" dataDxfId="146" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6532,7 +5974,7 @@
   <dimension ref="A1:AH195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25"/>
@@ -6558,22 +6000,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
       <c r="O1" s="40" t="s">
         <v>13</v>
       </c>
@@ -6589,7 +6031,7 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="44" t="s">
         <v>72</v>
       </c>
       <c r="O3" s="28" t="s">
@@ -6598,37 +6040,37 @@
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="C4" s="50"/>
+      <c r="C4" s="45"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="C5" s="50"/>
+      <c r="C5" s="45"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:34" ht="12" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="C6" s="50"/>
+      <c r="C6" s="45"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:34" ht="12" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="C7" s="50"/>
+      <c r="C7" s="45"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:34" ht="12" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="C8" s="50"/>
+      <c r="C8" s="45"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:34" ht="12" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="C9" s="50"/>
+      <c r="C9" s="45"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="C10" s="50"/>
+      <c r="C10" s="45"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:34">
@@ -7124,7 +6566,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L17" s="33">
         <v>0</v>
@@ -7220,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="K18" s="33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L18" s="33">
         <v>0</v>
@@ -7308,10 +6750,18 @@
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
+      <c r="J19" s="51">
+        <v>0</v>
+      </c>
+      <c r="K19" s="51">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="51">
+        <v>0</v>
+      </c>
+      <c r="M19" s="51">
+        <v>0</v>
+      </c>
       <c r="N19" s="34"/>
       <c r="O19" s="35"/>
       <c r="P19" s="8" t="str">
@@ -10039,24 +9489,24 @@
         <f>SUBTOTAL(109,[Temps investis (minutes)])</f>
         <v>25</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
-      <c r="M50" s="44"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
       <c r="N50" s="34"/>
       <c r="O50" s="39"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="45"/>
-      <c r="W50" s="45"/>
-      <c r="X50" s="45"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="45"/>
-      <c r="AA50" s="47"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="48"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="48"/>
+      <c r="U50" s="48"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="48"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="49"/>
+      <c r="Z50" s="48"/>
+      <c r="AA50" s="50"/>
     </row>
     <row r="51" spans="2:27">
       <c r="B51" s="27"/>
@@ -12025,150 +11475,150 @@
     <mergeCell ref="C3:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F26">
-    <cfRule type="cellIs" dxfId="77" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="52" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M26">
-    <cfRule type="expression" dxfId="74" priority="39">
+    <cfRule type="expression" dxfId="103" priority="42">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="40">
+    <cfRule type="expression" dxfId="102" priority="43">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="41">
+    <cfRule type="expression" dxfId="101" priority="44">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="71" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="41" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="68" priority="33">
+    <cfRule type="expression" dxfId="97" priority="36">
       <formula>P28="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="34">
+    <cfRule type="expression" dxfId="96" priority="37">
       <formula>P28="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="35">
+    <cfRule type="expression" dxfId="95" priority="38">
       <formula>P28="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F43">
-    <cfRule type="cellIs" dxfId="65" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M43">
-    <cfRule type="expression" dxfId="62" priority="27">
+    <cfRule type="expression" dxfId="91" priority="30">
       <formula>P29="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="28">
+    <cfRule type="expression" dxfId="90" priority="31">
       <formula>P29="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="29">
+    <cfRule type="expression" dxfId="89" priority="32">
       <formula>P29="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F46">
-    <cfRule type="cellIs" dxfId="59" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M46">
-    <cfRule type="expression" dxfId="56" priority="21">
+    <cfRule type="expression" dxfId="85" priority="24">
       <formula>P44="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="22">
+    <cfRule type="expression" dxfId="84" priority="25">
       <formula>P44="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="23">
+    <cfRule type="expression" dxfId="83" priority="26">
       <formula>P44="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="50" priority="15">
+    <cfRule type="expression" dxfId="79" priority="18">
       <formula>P27="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="16">
+    <cfRule type="expression" dxfId="78" priority="19">
       <formula>P27="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="17">
+    <cfRule type="expression" dxfId="77" priority="20">
       <formula>P27="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="expression" dxfId="47" priority="12">
+    <cfRule type="expression" dxfId="76" priority="15">
       <formula>P47="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="13">
+    <cfRule type="expression" dxfId="75" priority="16">
       <formula>P47="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="14">
+    <cfRule type="expression" dxfId="74" priority="17">
       <formula>P47="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:M48">
-    <cfRule type="expression" dxfId="44" priority="9">
+    <cfRule type="expression" dxfId="73" priority="12">
       <formula>P48="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="10">
+    <cfRule type="expression" dxfId="72" priority="13">
       <formula>P48="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="11">
+    <cfRule type="expression" dxfId="71" priority="14">
       <formula>P48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:M49">
-    <cfRule type="expression" dxfId="41" priority="6">
+    <cfRule type="expression" dxfId="70" priority="9">
       <formula>P49="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="7">
+    <cfRule type="expression" dxfId="69" priority="10">
       <formula>P49="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="8">
+    <cfRule type="expression" dxfId="68" priority="11">
       <formula>P49="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -12178,7 +11628,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -12188,7 +11638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -12198,6 +11648,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12207,13 +11687,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
         <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
+++ b/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
@@ -351,7 +351,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Ajout de la classe Serializer qui ne sera pas utiliser dans le jeu en tant que tel, mais qui contient un main() servant à sauvegarder des objets serialisés.</t>
+Doit mettre en place une méthode de lire un dossier contenant des tilesets contenus dans un dossier.
+-EDIT: Le jeu charge les tilesets en tant que noms de tuiles et references URL aux fichiers lors du début du jeu.</t>
         </r>
       </text>
     </comment>
@@ -1106,7 +1107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Numéro de tâche</t>
   </si>
@@ -1851,17 +1852,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1886,12 +1876,23 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="175">
+  <dxfs count="94">
     <dxf>
       <font>
         <b val="0"/>
@@ -2425,81 +2426,594 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF255B01"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF5B0101"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF01125B"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
-          <color rgb="FF05015B"/>
+          <color auto="1"/>
         </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
     </dxf>
     <dxf>
       <font>
@@ -3200,1995 +3714,6 @@
         <color rgb="FFA40000"/>
       </font>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -5294,7 +3819,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>16</c:v>
@@ -5326,7 +3851,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5403,7 +3928,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>505</c:v>
@@ -5459,7 +3984,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -5471,11 +3996,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80139008"/>
-        <c:axId val="80140544"/>
+        <c:axId val="96957952"/>
+        <c:axId val="96959488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80139008"/>
+        <c:axId val="96957952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5491,14 +4016,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80140544"/>
+        <c:crossAx val="96959488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80140544"/>
+        <c:axId val="96959488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5534,7 +4059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80139008"/>
+        <c:crossAx val="96957952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5557,7 +4082,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5629,56 +4154,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="174" dataDxfId="173" totalsRowDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="171" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="170" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="169" totalsRowDxfId="23"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="168" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="167" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="166" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="165" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="164" totalsRowDxfId="18"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="163" totalsRowDxfId="17"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="162" totalsRowDxfId="16"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="161" totalsRowDxfId="15"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="160" totalsRowDxfId="14"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="159" totalsRowDxfId="13"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="158" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="157" totalsRowDxfId="11">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="51" totalsRowDxfId="25"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="24"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="49" totalsRowDxfId="23"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="48" totalsRowDxfId="22"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="47" totalsRowDxfId="21"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="20"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="45" totalsRowDxfId="19"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="18"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="43" totalsRowDxfId="17"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="42" totalsRowDxfId="16"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="41" totalsRowDxfId="15"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="40" totalsRowDxfId="14"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="39" totalsRowDxfId="13"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="38" totalsRowDxfId="12"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="37" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="156" totalsRowDxfId="10">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="36" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="155" totalsRowDxfId="9">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="35" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="154" totalsRowDxfId="8">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="34" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="153" totalsRowDxfId="7">
+    <tableColumn id="25" name="Prev 00" dataDxfId="33" totalsRowDxfId="7">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="152" totalsRowDxfId="6">
+    <tableColumn id="26" name="Prev 01" dataDxfId="32" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="151" totalsRowDxfId="5">
+    <tableColumn id="27" name="Prev 02" dataDxfId="31" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="150" totalsRowDxfId="4">
+    <tableColumn id="28" name="Prev 03" dataDxfId="30" totalsRowDxfId="4">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="149" totalsRowDxfId="3">
+    <tableColumn id="21" name="Temps S1" dataDxfId="29" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="148" totalsRowDxfId="2">
+    <tableColumn id="23" name="Temps S2" dataDxfId="28" totalsRowDxfId="2">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="147" totalsRowDxfId="1">
+    <tableColumn id="22" name="Temps S3" dataDxfId="27" totalsRowDxfId="1">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="146" totalsRowDxfId="0">
+    <tableColumn id="24" name="Temps S4" dataDxfId="26" totalsRowDxfId="0">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5973,8 +4498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25"/>
@@ -6000,22 +4525,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="19.5" thickBot="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
       <c r="O1" s="40" t="s">
         <v>13</v>
       </c>
@@ -6031,7 +4556,7 @@
     </row>
     <row r="3" spans="1:34" ht="12" customHeight="1">
       <c r="A3" s="2"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="50" t="s">
         <v>72</v>
       </c>
       <c r="O3" s="28" t="s">
@@ -6040,37 +4565,37 @@
     </row>
     <row r="4" spans="1:34" ht="12" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="C4" s="45"/>
+      <c r="C4" s="51"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:34" ht="12" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="C5" s="45"/>
+      <c r="C5" s="51"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:34" ht="12" customHeight="1">
       <c r="A6" s="2"/>
-      <c r="C6" s="45"/>
+      <c r="C6" s="51"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:34" ht="12" customHeight="1">
       <c r="A7" s="2"/>
-      <c r="C7" s="45"/>
+      <c r="C7" s="51"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:34" ht="12" customHeight="1">
       <c r="A8" s="2"/>
-      <c r="C8" s="45"/>
+      <c r="C8" s="51"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:34" ht="12" customHeight="1">
       <c r="A9" s="2"/>
-      <c r="C9" s="45"/>
+      <c r="C9" s="51"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:34" ht="12" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="C10" s="45"/>
+      <c r="C10" s="51"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:34">
@@ -6274,7 +4799,7 @@
         <v>15</v>
       </c>
       <c r="I14" s="29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J14" s="32">
         <v>0</v>
@@ -6328,7 +4853,7 @@
       </c>
       <c r="Y14" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -6370,7 +4895,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J15" s="32">
         <v>0</v>
@@ -6424,7 +4949,7 @@
       </c>
       <c r="Y15" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z15" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -6464,7 +4989,7 @@
         <v>15</v>
       </c>
       <c r="I16" s="29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16" s="32">
         <v>0</v>
@@ -6518,7 +5043,7 @@
       </c>
       <c r="Y16" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z16" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -6560,7 +5085,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="29">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J17" s="32">
         <v>0</v>
@@ -6614,7 +5139,7 @@
       </c>
       <c r="Y17" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z17" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -6656,7 +5181,7 @@
         <v>15</v>
       </c>
       <c r="I18" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="32">
         <v>0</v>
@@ -6710,7 +5235,7 @@
       </c>
       <c r="Y18" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z18" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -6748,37 +5273,41 @@
       <c r="G19" s="29">
         <v>30</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="51">
-        <v>0</v>
-      </c>
-      <c r="K19" s="51">
+      <c r="H19" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="29">
+        <v>45</v>
+      </c>
+      <c r="J19" s="48">
+        <v>0</v>
+      </c>
+      <c r="K19" s="48">
         <v>0.8</v>
       </c>
-      <c r="L19" s="51">
-        <v>0</v>
-      </c>
-      <c r="M19" s="51">
+      <c r="L19" s="48">
+        <v>0</v>
+      </c>
+      <c r="M19" s="48">
         <v>0</v>
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="35"/>
       <c r="P19" s="8" t="str">
         <f>IF(OR($H19="",J19=""),"Indef",IF(J19&gt;=1,"Terminé",IF($H19&lt;=P$12,"Retard",IF(J19&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <v>Sprint suivant</v>
       </c>
       <c r="Q19" s="8" t="str">
         <f>IF(OR($H19="",K19=""),"Indef",IF(K19&gt;=1,"Terminé",IF($H19&lt;=Q$12,"Retard",IF(K19&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <v>Retard</v>
       </c>
       <c r="R19" s="8" t="str">
         <f>IF(OR($H19="",L19=""),"Indef",IF(L19&gt;=1,"Terminé",IF($H19&lt;=R$12,"Retard",IF(L19&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <v>Retard</v>
       </c>
       <c r="S19" s="8" t="str">
         <f>IF(OR($H19="",M19=""),"Indef",IF(M19&gt;=1,"Terminé",IF($H19&lt;=S$12,"Retard",IF(M19&gt;0,"Avancement","Sprint suivant"))))</f>
-        <v>Indef</v>
+        <v>Retard</v>
       </c>
       <c r="T19" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -6786,7 +5315,7 @@
       </c>
       <c r="U19" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="V19" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</f>
@@ -6802,7 +5331,7 @@
       </c>
       <c r="Y19" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="Z19" s="9">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -7030,7 +5559,7 @@
         <v>15</v>
       </c>
       <c r="I22" s="29">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J22" s="32">
         <v>0</v>
@@ -7084,7 +5613,7 @@
       </c>
       <c r="Y22" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z22" s="18">
         <f>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</f>
@@ -9487,26 +8016,26 @@
       <c r="H50" s="31"/>
       <c r="I50" s="38">
         <f>SUBTOTAL(109,[Temps investis (minutes)])</f>
-        <v>25</v>
-      </c>
-      <c r="J50" s="46"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
+        <v>135</v>
+      </c>
+      <c r="J50" s="43"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
       <c r="N50" s="34"/>
       <c r="O50" s="39"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="49"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="50"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="47"/>
     </row>
     <row r="51" spans="2:27">
       <c r="B51" s="27"/>
@@ -11394,19 +9923,19 @@
       </c>
       <c r="F192" s="3">
         <f>COUNTIF(Table1[Prévision du Sprint où la tâche doit être terminée],E192)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G192" s="26">
         <f>F192/$F$195</f>
-        <v>0.30555555555555558</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="H192" s="3">
         <f>SUM(Table1[Prev 01])</f>
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="I192" s="3">
         <f>SUM(Table1[Temps S2])</f>
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
     <row r="193" spans="5:9" hidden="1">
@@ -11419,7 +9948,7 @@
       </c>
       <c r="G193" s="26">
         <f>F193/$F$195</f>
-        <v>0.44444444444444442</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="H193" s="3">
         <f>SUM(Table1[Prev 02])</f>
@@ -11440,7 +9969,7 @@
       </c>
       <c r="G194" s="26">
         <f>F194/$F$195</f>
-        <v>0.25</v>
+        <v>0.24324324324324326</v>
       </c>
       <c r="H194" s="3">
         <f>SUM(Table1[Prev 03])</f>
@@ -11457,15 +9986,15 @@
       </c>
       <c r="F195" s="3">
         <f>SUM(F191:F194)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H195" s="3">
         <f>SUM(H191:H194)</f>
-        <v>1120</v>
+        <v>1150</v>
       </c>
       <c r="I195" s="3">
         <f>SUM(I191:I194)</f>
-        <v>25</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -11475,145 +10004,145 @@
     <mergeCell ref="C3:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F26">
-    <cfRule type="cellIs" dxfId="106" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="52" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="53" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M26">
-    <cfRule type="expression" dxfId="103" priority="42">
+    <cfRule type="expression" dxfId="90" priority="42">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="43">
+    <cfRule type="expression" dxfId="89" priority="43">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="44">
+    <cfRule type="expression" dxfId="88" priority="44">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="100" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="40" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="41" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="97" priority="36">
+    <cfRule type="expression" dxfId="84" priority="36">
       <formula>P28="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="37">
+    <cfRule type="expression" dxfId="83" priority="37">
       <formula>P28="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="38">
+    <cfRule type="expression" dxfId="82" priority="38">
       <formula>P28="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F43">
-    <cfRule type="cellIs" dxfId="94" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="35" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M43">
-    <cfRule type="expression" dxfId="91" priority="30">
+    <cfRule type="expression" dxfId="78" priority="30">
       <formula>P29="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="31">
+    <cfRule type="expression" dxfId="77" priority="31">
       <formula>P29="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="32">
+    <cfRule type="expression" dxfId="76" priority="32">
       <formula>P29="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F46">
-    <cfRule type="cellIs" dxfId="88" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M46">
-    <cfRule type="expression" dxfId="85" priority="24">
+    <cfRule type="expression" dxfId="72" priority="24">
       <formula>P44="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="25">
+    <cfRule type="expression" dxfId="71" priority="25">
       <formula>P44="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="26">
+    <cfRule type="expression" dxfId="70" priority="26">
       <formula>P44="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="82" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="79" priority="18">
+    <cfRule type="expression" dxfId="66" priority="18">
       <formula>P27="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="19">
+    <cfRule type="expression" dxfId="65" priority="19">
       <formula>P27="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="20">
+    <cfRule type="expression" dxfId="64" priority="20">
       <formula>P27="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="expression" dxfId="76" priority="15">
+    <cfRule type="expression" dxfId="63" priority="15">
       <formula>P47="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="16">
+    <cfRule type="expression" dxfId="62" priority="16">
       <formula>P47="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="17">
+    <cfRule type="expression" dxfId="61" priority="17">
       <formula>P47="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:M48">
-    <cfRule type="expression" dxfId="73" priority="12">
+    <cfRule type="expression" dxfId="60" priority="12">
       <formula>P48="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="13">
+    <cfRule type="expression" dxfId="59" priority="13">
       <formula>P48="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="14">
+    <cfRule type="expression" dxfId="58" priority="14">
       <formula>P48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:M49">
-    <cfRule type="expression" dxfId="70" priority="9">
+    <cfRule type="expression" dxfId="57" priority="9">
       <formula>P49="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="10">
+    <cfRule type="expression" dxfId="56" priority="10">
       <formula>P49="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="11">
+    <cfRule type="expression" dxfId="55" priority="11">
       <formula>P49="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
+++ b/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
@@ -380,6 +380,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K20" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+La classe Room semble fonctionné comme prévu.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C21" authorId="0">
       <text>
         <r>
@@ -401,6 +425,30 @@
           </rPr>
           <t xml:space="preserve">
 Coder un algo d'affichage de la matrice de la salle avec le tileset inclus.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K21" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+La méthode draw appel la nouvelle méthode draw du tileset, qui recoit la tuile et la passe dans une switch pour decider quoi dessiner.</t>
         </r>
       </text>
     </comment>
@@ -1892,7 +1940,1405 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="211">
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2426,6 +3872,1404 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF255B01"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDAFEC2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF255B01"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF255B01"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF255B01"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF255B01"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF5B0101"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFEDEDE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF5B0101"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF5B0101"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF5B0101"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF5B0101"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF01125B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD2DAFE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FF05015B"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF05015B"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF05015B"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF05015B"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA4A400"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFA40000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3014,705 +5858,6 @@
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3851,7 +5996,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3996,11 +6141,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96957952"/>
-        <c:axId val="96959488"/>
+        <c:axId val="82872192"/>
+        <c:axId val="82873728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96957952"/>
+        <c:axId val="82872192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,14 +6161,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96959488"/>
+        <c:crossAx val="82873728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96959488"/>
+        <c:axId val="82873728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,7 +6204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96957952"/>
+        <c:crossAx val="82872192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4082,7 +6227,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4154,56 +6299,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" totalsRowDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="51" totalsRowDxfId="25"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="50" totalsRowDxfId="24"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="49" totalsRowDxfId="23"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="48" totalsRowDxfId="22"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="47" totalsRowDxfId="21"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="20"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="45" totalsRowDxfId="19"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="18"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="43" totalsRowDxfId="17"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="42" totalsRowDxfId="16"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="41" totalsRowDxfId="15"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="40" totalsRowDxfId="14"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="39" totalsRowDxfId="13"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="38" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="37" totalsRowDxfId="11">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="207" totalsRowDxfId="103"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="102"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="205" totalsRowDxfId="101"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="204" totalsRowDxfId="100"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="203" totalsRowDxfId="99"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="202" totalsRowDxfId="98"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="201" totalsRowDxfId="97"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="200" totalsRowDxfId="96"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="199" totalsRowDxfId="95"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="198" totalsRowDxfId="94"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="197" totalsRowDxfId="93"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="196" totalsRowDxfId="92"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="195" totalsRowDxfId="91"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="194" totalsRowDxfId="90"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="193" totalsRowDxfId="89">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="36" totalsRowDxfId="10">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="192" totalsRowDxfId="88">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="35" totalsRowDxfId="9">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="191" totalsRowDxfId="87">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="34" totalsRowDxfId="8">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="190" totalsRowDxfId="86">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="33" totalsRowDxfId="7">
+    <tableColumn id="25" name="Prev 00" dataDxfId="189" totalsRowDxfId="85">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="32" totalsRowDxfId="6">
+    <tableColumn id="26" name="Prev 01" dataDxfId="188" totalsRowDxfId="84">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="31" totalsRowDxfId="5">
+    <tableColumn id="27" name="Prev 02" dataDxfId="187" totalsRowDxfId="83">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="30" totalsRowDxfId="4">
+    <tableColumn id="28" name="Prev 03" dataDxfId="186" totalsRowDxfId="82">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="29" totalsRowDxfId="3">
+    <tableColumn id="21" name="Temps S1" dataDxfId="185" totalsRowDxfId="81">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="28" totalsRowDxfId="2">
+    <tableColumn id="23" name="Temps S2" dataDxfId="184" totalsRowDxfId="80">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="27" totalsRowDxfId="1">
+    <tableColumn id="22" name="Temps S3" dataDxfId="183" totalsRowDxfId="79">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="26" totalsRowDxfId="0">
+    <tableColumn id="24" name="Temps S4" dataDxfId="182" totalsRowDxfId="78">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4498,8 +6643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="11.25"/>
@@ -5377,7 +7522,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="33">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="L20" s="33">
         <v>0</v>
@@ -5472,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="33">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L21" s="33">
         <v>0</v>
@@ -10004,150 +12149,150 @@
     <mergeCell ref="C3:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F26">
-    <cfRule type="cellIs" dxfId="93" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="55" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="56" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M26">
-    <cfRule type="expression" dxfId="90" priority="42">
+    <cfRule type="expression" dxfId="74" priority="45">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="43">
+    <cfRule type="expression" dxfId="73" priority="46">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="44">
+    <cfRule type="expression" dxfId="72" priority="47">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="87" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="42" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="43" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="44" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="84" priority="36">
+    <cfRule type="expression" dxfId="68" priority="39">
       <formula>P28="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="37">
+    <cfRule type="expression" dxfId="67" priority="40">
       <formula>P28="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="38">
+    <cfRule type="expression" dxfId="66" priority="41">
       <formula>P28="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F43">
-    <cfRule type="cellIs" dxfId="81" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="36" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M43">
-    <cfRule type="expression" dxfId="78" priority="30">
+    <cfRule type="expression" dxfId="62" priority="33">
       <formula>P29="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="31">
+    <cfRule type="expression" dxfId="61" priority="34">
       <formula>P29="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="32">
+    <cfRule type="expression" dxfId="60" priority="35">
       <formula>P29="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F46">
-    <cfRule type="cellIs" dxfId="75" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M46">
-    <cfRule type="expression" dxfId="72" priority="24">
+    <cfRule type="expression" dxfId="56" priority="27">
       <formula>P44="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="25">
+    <cfRule type="expression" dxfId="55" priority="28">
       <formula>P44="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="26">
+    <cfRule type="expression" dxfId="54" priority="29">
       <formula>P44="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="69" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="66" priority="18">
+    <cfRule type="expression" dxfId="50" priority="21">
       <formula>P27="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="19">
+    <cfRule type="expression" dxfId="49" priority="22">
       <formula>P27="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="20">
+    <cfRule type="expression" dxfId="48" priority="23">
       <formula>P27="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="expression" dxfId="63" priority="15">
+    <cfRule type="expression" dxfId="47" priority="18">
       <formula>P47="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="16">
+    <cfRule type="expression" dxfId="46" priority="19">
       <formula>P47="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="17">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>P47="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:M48">
-    <cfRule type="expression" dxfId="60" priority="12">
+    <cfRule type="expression" dxfId="44" priority="15">
       <formula>P48="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="13">
+    <cfRule type="expression" dxfId="43" priority="16">
       <formula>P48="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="14">
+    <cfRule type="expression" dxfId="42" priority="17">
       <formula>P48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:M49">
-    <cfRule type="expression" dxfId="57" priority="9">
+    <cfRule type="expression" dxfId="41" priority="12">
       <formula>P49="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="10">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>P49="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="11">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>P49="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -10157,7 +12302,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -10167,7 +12312,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -10177,6 +12322,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -10186,8 +12361,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -10196,33 +12381,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
+  <conditionalFormatting sqref="K21">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
+++ b/Docs/B65_S1_Planification_Renaud_Bigras.xlsx
@@ -524,6 +524,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K23" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+La classe joueur et toutes ses  variables (certaines en commentaire pour l'instant) est mise en place et répond de manière voulue.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C24" authorId="0">
       <text>
         <r>
@@ -545,6 +569,30 @@
           </rPr>
           <t xml:space="preserve">
 Faire le lien entre la présence d'un objet PlayerEntity sur le plan de jeu et les contrôles du système, de manière à avoir un joueur qui se déplace de manière de base sur le plan du jeu, collisions en place avec les murs de la salle. Ceci termine le sprint 2, le sprint de dévéloppement initial, avec comme résultat un joueur qui se déplace dans une salle; la base du jeu.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mr. Eltee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Le personnage se déplace sur le jeu, sans collisions pour l'instant..</t>
         </r>
       </text>
     </comment>
@@ -1940,7 +1988,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="172">
     <dxf>
       <font>
         <color rgb="FF255B01"/>
@@ -3341,537 +3389,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="1" hidden="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF255B01"/>
       </font>
       <fill>
@@ -4571,702 +4088,534 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="1" hidden="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color rgb="FF255B01"/>
+          <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
         </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF255B01"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDAFEC2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF255B01"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF255B01"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF255B01"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF255B01"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF5B0101"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFEDEDE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF5B0101"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF5B0101"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF5B0101"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF5B0101"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF01125B"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD2DAFE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FF05015B"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF05015B"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF05015B"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF05015B"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA4A400"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFA40000"/>
-      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#&quot; min&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#&quot; tâches&quot;"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5904,7 +5253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -5980,7 +5328,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -5996,7 +5343,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6022,7 +5369,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6141,11 +5487,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82872192"/>
-        <c:axId val="82873728"/>
+        <c:axId val="71361664"/>
+        <c:axId val="71363200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82872192"/>
+        <c:axId val="71361664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6161,14 +5507,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82873728"/>
+        <c:crossAx val="71363200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82873728"/>
+        <c:axId val="71363200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6190,7 +5536,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -6204,14 +5549,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="82872192"/>
+        <c:crossAx val="71361664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -6227,7 +5571,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6299,56 +5643,56 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="210" dataDxfId="209" totalsRowDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B12:AA50" totalsRowCount="1" headerRowDxfId="171" dataDxfId="170" totalsRowDxfId="169">
   <tableColumns count="26">
-    <tableColumn id="1" name="Numéro de tâche" dataDxfId="207" totalsRowDxfId="103"/>
-    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="206" totalsRowDxfId="102"/>
-    <tableColumn id="3" name="Prédécesseurs" dataDxfId="205" totalsRowDxfId="101"/>
-    <tableColumn id="4" name="Niveau de priorité" dataDxfId="204" totalsRowDxfId="100"/>
-    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="203" totalsRowDxfId="99"/>
-    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="202" totalsRowDxfId="98"/>
-    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="201" totalsRowDxfId="97"/>
-    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="200" totalsRowDxfId="96"/>
-    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="199" totalsRowDxfId="95"/>
-    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="198" totalsRowDxfId="94"/>
-    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="197" totalsRowDxfId="93"/>
-    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="196" totalsRowDxfId="92"/>
-    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="195" totalsRowDxfId="91"/>
-    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="194" totalsRowDxfId="90"/>
-    <tableColumn id="15" name="Sprint 1" dataDxfId="193" totalsRowDxfId="89">
+    <tableColumn id="1" name="Numéro de tâche" dataDxfId="168" totalsRowDxfId="142"/>
+    <tableColumn id="2" name="Description générale de la tâche" totalsRowFunction="count" dataDxfId="167" totalsRowDxfId="141"/>
+    <tableColumn id="3" name="Prédécesseurs" dataDxfId="166" totalsRowDxfId="140"/>
+    <tableColumn id="4" name="Niveau de priorité" dataDxfId="165" totalsRowDxfId="139"/>
+    <tableColumn id="5" name="Niveau de difficulté" dataDxfId="164" totalsRowDxfId="138"/>
+    <tableColumn id="6" name="Temps requis (minutes)" totalsRowFunction="sum" dataDxfId="163" totalsRowDxfId="137"/>
+    <tableColumn id="7" name="Prévision du Sprint où la tâche doit être terminée" dataDxfId="162" totalsRowDxfId="136"/>
+    <tableColumn id="8" name="Temps investis (minutes)" totalsRowFunction="sum" dataDxfId="161" totalsRowDxfId="135"/>
+    <tableColumn id="9" name="% d'avancement au Sprint 1" dataDxfId="160" totalsRowDxfId="134"/>
+    <tableColumn id="10" name="% d'avancement au Sprint 2" dataDxfId="159" totalsRowDxfId="133"/>
+    <tableColumn id="11" name="% d'avancement au Sprint 3" dataDxfId="158" totalsRowDxfId="132"/>
+    <tableColumn id="12" name="% d'avancement au Sprint 4" dataDxfId="157" totalsRowDxfId="131"/>
+    <tableColumn id="13" name="Pourquoi le retard" dataDxfId="156" totalsRowDxfId="130"/>
+    <tableColumn id="14" name="Moyens envisagés pour solutionner le problème" dataDxfId="155" totalsRowDxfId="129"/>
+    <tableColumn id="15" name="Sprint 1" dataDxfId="154" totalsRowDxfId="128">
       <calculatedColumnFormula>IF(OR($H13="",J13=""),"Indef",IF(J13&gt;=1,"Terminé",IF($H13&lt;=P$12,"Retard",IF(J13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="Sprint 2" dataDxfId="192" totalsRowDxfId="88">
+    <tableColumn id="16" name="Sprint 2" dataDxfId="153" totalsRowDxfId="127">
       <calculatedColumnFormula>IF(OR($H13="",K13=""),"Indef",IF(K13&gt;=1,"Terminé",IF($H13&lt;=Q$12,"Retard",IF(K13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Sprint 3" dataDxfId="191" totalsRowDxfId="87">
+    <tableColumn id="17" name="Sprint 3" dataDxfId="152" totalsRowDxfId="126">
       <calculatedColumnFormula>IF(OR($H13="",L13=""),"Indef",IF(L13&gt;=1,"Terminé",IF($H13&lt;=R$12,"Retard",IF(L13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Sprint 4" dataDxfId="190" totalsRowDxfId="86">
+    <tableColumn id="18" name="Sprint 4" dataDxfId="151" totalsRowDxfId="125">
       <calculatedColumnFormula>IF(OR($H13="",M13=""),"Indef",IF(M13&gt;=1,"Terminé",IF($H13&lt;=S$12,"Retard",IF(M13&gt;0,"Avancement","Sprint suivant"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" name="Prev 00" dataDxfId="189" totalsRowDxfId="85">
+    <tableColumn id="25" name="Prev 00" dataDxfId="150" totalsRowDxfId="124">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" name="Prev 01" dataDxfId="188" totalsRowDxfId="84">
+    <tableColumn id="26" name="Prev 01" dataDxfId="149" totalsRowDxfId="123">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" name="Prev 02" dataDxfId="187" totalsRowDxfId="83">
+    <tableColumn id="27" name="Prev 02" dataDxfId="148" totalsRowDxfId="122">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Prev 03" dataDxfId="186" totalsRowDxfId="82">
+    <tableColumn id="28" name="Prev 03" dataDxfId="147" totalsRowDxfId="121">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps requis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Temps S1" dataDxfId="185" totalsRowDxfId="81">
+    <tableColumn id="21" name="Temps S1" dataDxfId="146" totalsRowDxfId="120">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 1",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="Temps S2" dataDxfId="184" totalsRowDxfId="80">
+    <tableColumn id="23" name="Temps S2" dataDxfId="145" totalsRowDxfId="119">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 2",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Temps S3" dataDxfId="183" totalsRowDxfId="79">
+    <tableColumn id="22" name="Temps S3" dataDxfId="144" totalsRowDxfId="118">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 3",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" name="Temps S4" dataDxfId="182" totalsRowDxfId="78">
+    <tableColumn id="24" name="Temps S4" dataDxfId="143" totalsRowDxfId="117">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Prévision du Sprint où la tâche doit être terminée]]="Sprint 4",Table1[[#This Row],[Temps investis (minutes)]],0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7798,7 +7142,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L23" s="33">
         <v>0</v>
@@ -7886,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="33">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L24" s="33">
         <v>0</v>
@@ -12149,149 +11493,169 @@
     <mergeCell ref="C3:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="E13:F26">
-    <cfRule type="cellIs" dxfId="77" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="57" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="58" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:M26">
-    <cfRule type="expression" dxfId="74" priority="45">
+    <cfRule type="expression" dxfId="74" priority="47">
       <formula>P13="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="46">
+    <cfRule type="expression" dxfId="73" priority="48">
       <formula>P13="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="47">
+    <cfRule type="expression" dxfId="72" priority="49">
       <formula>P13="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="cellIs" dxfId="71" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="45" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="46" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:M28">
-    <cfRule type="expression" dxfId="68" priority="39">
+    <cfRule type="expression" dxfId="68" priority="41">
       <formula>P28="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="40">
+    <cfRule type="expression" dxfId="67" priority="42">
       <formula>P28="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="41">
+    <cfRule type="expression" dxfId="66" priority="43">
       <formula>P28="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F43">
-    <cfRule type="cellIs" dxfId="65" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="38" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="39" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="40" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29:M43">
-    <cfRule type="expression" dxfId="62" priority="33">
+    <cfRule type="expression" dxfId="62" priority="35">
       <formula>P29="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="34">
+    <cfRule type="expression" dxfId="61" priority="36">
       <formula>P29="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="35">
+    <cfRule type="expression" dxfId="60" priority="37">
       <formula>P29="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F46">
-    <cfRule type="cellIs" dxfId="59" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="32" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="33" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="34" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44:M46">
-    <cfRule type="expression" dxfId="56" priority="27">
+    <cfRule type="expression" dxfId="56" priority="29">
       <formula>P44="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="28">
+    <cfRule type="expression" dxfId="55" priority="30">
       <formula>P44="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="29">
+    <cfRule type="expression" dxfId="54" priority="31">
       <formula>P44="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="cellIs" dxfId="53" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="27" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="28" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:M27">
-    <cfRule type="expression" dxfId="50" priority="21">
+    <cfRule type="expression" dxfId="50" priority="23">
       <formula>P27="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="22">
+    <cfRule type="expression" dxfId="49" priority="24">
       <formula>P27="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="23">
+    <cfRule type="expression" dxfId="48" priority="25">
       <formula>P27="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:M47">
-    <cfRule type="expression" dxfId="47" priority="18">
+    <cfRule type="expression" dxfId="47" priority="20">
       <formula>P47="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="19">
+    <cfRule type="expression" dxfId="46" priority="21">
       <formula>P47="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="20">
+    <cfRule type="expression" dxfId="45" priority="22">
       <formula>P47="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:M48">
-    <cfRule type="expression" dxfId="44" priority="15">
+    <cfRule type="expression" dxfId="44" priority="17">
       <formula>P48="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="16">
+    <cfRule type="expression" dxfId="43" priority="18">
       <formula>P48="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="17">
+    <cfRule type="expression" dxfId="42" priority="19">
       <formula>P48="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:M49">
-    <cfRule type="expression" dxfId="41" priority="12">
+    <cfRule type="expression" dxfId="41" priority="14">
       <formula>P49="Avancement"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="13">
+    <cfRule type="expression" dxfId="40" priority="15">
       <formula>P49="Retard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="14">
+    <cfRule type="expression" dxfId="39" priority="16">
       <formula>P49="Terminé"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12301,7 +11665,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
+  <conditionalFormatting sqref="K15">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12311,7 +11675,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
+  <conditionalFormatting sqref="K16">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12321,7 +11685,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
+  <conditionalFormatting sqref="K17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12331,17 +11695,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
+  <conditionalFormatting sqref="K18">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
         <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
+  <conditionalFormatting sqref="K19">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -12351,28 +11715,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="max" val="0"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEF9C"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
@@ -12382,12 +11726,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min" val="0"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
